--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -959,10 +959,10 @@
         <v>3.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -971,16 +971,16 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -1013,31 +1013,31 @@
         <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
         <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
         <v>34</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
         <v>67</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I4" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -1135,16 +1135,16 @@
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1153,10 +1153,10 @@
         <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>15</v>
@@ -1180,13 +1180,13 @@
         <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
@@ -1195,22 +1195,22 @@
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ4" t="n">
         <v>8.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL4" t="n">
         <v>13</v>
       </c>
       <c r="AM4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO4" t="n">
         <v>41</v>
@@ -1222,7 +1222,7 @@
         <v>151</v>
       </c>
       <c r="AR4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS4" t="n">
         <v>351</v>
@@ -1231,7 +1231,7 @@
         <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
@@ -1317,10 +1317,10 @@
         <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
         <v>2.25</v>
@@ -1493,10 +1493,10 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
         <v>1.29</v>
@@ -1505,10 +1505,10 @@
         <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MR008KBU</t>
+          <t>Qa7iAtsI</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,162 +1648,344 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>La Guaira</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Estudiantes Merida</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="J7" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>7.8</v>
+        <v>6.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>2.65</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>1.91</v>
+        <v>1.6</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="T7" t="n">
-        <v>2.9</v>
+        <v>2.37</v>
       </c>
       <c r="U7" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="V7" t="n">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="W7" t="n">
-        <v>8.25</v>
+        <v>6.3</v>
       </c>
       <c r="X7" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC7" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10.75</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AK7" t="n">
         <v>50</v>
       </c>
-      <c r="AG7" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>45</v>
-      </c>
       <c r="AL7" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AM7" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AO7" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AP7" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AQ7" t="n">
         <v>40</v>
       </c>
       <c r="AR7" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AS7" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>110</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MR008KBU</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>La Guaira</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Estudiantes Merida</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS8" t="n">
         <v>200</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT8" t="n">
         <v>2.72</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU8" t="n">
         <v>6.7</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV8" t="n">
         <v>55</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW8" t="n">
         <v>5.3</v>
       </c>
-      <c r="AX7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>90</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD7" t="n">
+      <c r="AX8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD8" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
@@ -983,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>23</v>
@@ -992,7 +992,7 @@
         <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
         <v>8.5</v>
@@ -1019,7 +1019,7 @@
         <v>12</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
         <v>26</v>
@@ -1034,7 +1034,7 @@
         <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -1055,13 +1055,13 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
         <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
         <v>51</v>
@@ -1120,7 +1120,7 @@
         <v>1.42</v>
       </c>
       <c r="J4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K4" t="n">
         <v>2.3</v>
@@ -1129,22 +1129,22 @@
         <v>1.95</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1159,10 +1159,10 @@
         <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y4" t="n">
         <v>21</v>
@@ -1198,10 +1198,10 @@
         <v>6</v>
       </c>
       <c r="AJ4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK4" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>9</v>
       </c>
       <c r="AL4" t="n">
         <v>13</v>
@@ -1210,7 +1210,7 @@
         <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO4" t="n">
         <v>41</v>
@@ -1219,7 +1219,7 @@
         <v>41</v>
       </c>
       <c r="AQ4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AR4" t="n">
         <v>201</v>
@@ -1237,7 +1237,7 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AX4" t="n">
         <v>7</v>
@@ -1410,7 +1410,7 @@
         <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="AU5" t="n">
         <v>8.5</v>
@@ -1657,148 +1657,148 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="H7" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="K7" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="L7" t="n">
-        <v>4.1</v>
+        <v>4.45</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="T7" t="n">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="W7" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X7" t="n">
         <v>8.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA7" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AH7" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AI7" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AK7" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AL7" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AM7" t="n">
         <v>50</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AO7" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AP7" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AR7" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AS7" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.35</v>
+        <v>2.52</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="AV7" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="AX7" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AY7" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="BA7" t="n">
         <v>175</v>
       </c>
       <c r="BB7" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1839,19 +1839,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
         <v>3.85</v>
@@ -1866,7 +1866,7 @@
         <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q8" t="n">
         <v>1.8</v>
@@ -1881,55 +1881,55 @@
         <v>2.85</v>
       </c>
       <c r="U8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
         <v>15.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG8" t="n">
         <v>350</v>
       </c>
       <c r="AH8" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AI8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="n">
         <v>11.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL8" t="n">
         <v>29</v>
@@ -1938,16 +1938,16 @@
         <v>32</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO8" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AP8" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ8" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR8" t="n">
         <v>65</v>
@@ -1956,10 +1956,10 @@
         <v>200</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV8" t="n">
         <v>55</v>
@@ -1971,10 +1971,10 @@
         <v>18.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ8" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA8" t="n">
         <v>120</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -765,10 +765,10 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
@@ -950,7 +950,7 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -959,10 +959,10 @@
         <v>3.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -983,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
         <v>23</v>
@@ -992,7 +992,7 @@
         <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
         <v>8.5</v>
@@ -1019,7 +1019,7 @@
         <v>12</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
         <v>26</v>
@@ -1034,7 +1034,7 @@
         <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -1055,13 +1055,13 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX3" t="n">
         <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
         <v>51</v>
@@ -1141,10 +1141,10 @@
         <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
@@ -1308,13 +1308,13 @@
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1335,10 +1335,10 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
         <v>8</v>
@@ -1657,139 +1657,139 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="K7" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>4.45</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>6.65</v>
       </c>
       <c r="O7" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
         <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="V7" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="W7" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="X7" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y7" t="n">
         <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AE7" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK7" t="n">
         <v>80</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>70</v>
       </c>
       <c r="AL7" t="n">
         <v>45</v>
       </c>
       <c r="AM7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS7" t="n">
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AX7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AZ7" t="n">
         <v>150</v>
@@ -1798,7 +1798,7 @@
         <v>175</v>
       </c>
       <c r="BB7" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1848,19 +1848,19 @@
         <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1869,43 +1869,43 @@
         <v>3.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R8" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S8" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="T8" t="n">
-        <v>2.85</v>
+        <v>2.99</v>
       </c>
       <c r="U8" t="n">
         <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="W8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y8" t="n">
         <v>8.25</v>
       </c>
-      <c r="X8" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1914,13 +1914,13 @@
         <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG8" t="n">
         <v>350</v>
       </c>
       <c r="AH8" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AI8" t="n">
         <v>19</v>
@@ -1932,10 +1932,10 @@
         <v>50</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM8" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN8" t="n">
         <v>3.95</v>
@@ -1944,13 +1944,13 @@
         <v>10.25</v>
       </c>
       <c r="AP8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
         <v>37</v>
       </c>
       <c r="AR8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS8" t="n">
         <v>200</v>
@@ -1968,13 +1968,13 @@
         <v>5.3</v>
       </c>
       <c r="AX8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ8" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA8" t="n">
         <v>120</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
@@ -795,13 +795,13 @@
         <v>1.91</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
         <v>23</v>
@@ -834,10 +834,10 @@
         <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>26</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -596,112 +596,112 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-0_HT</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-0_HT</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-1_HT</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-0_HT</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-1_HT</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-0_HT</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-1_HT</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-2_HT</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-0_HT</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-0_HT</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-1_HT</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-0_HT</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-1_HT</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-2_HT</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-0_HT</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-1_HT</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-2_HT</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
@@ -795,13 +795,13 @@
         <v>1.91</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
         <v>23</v>
@@ -825,67 +825,67 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA2" t="n">
         <v>251</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>81</v>
       </c>
       <c r="BB2" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
@@ -768,7 +768,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -798,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -828,7 +828,7 @@
         <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -837,22 +837,22 @@
         <v>29</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
         <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
         <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ2" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
@@ -789,16 +789,16 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
         <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -828,7 +828,7 @@
         <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -837,22 +837,22 @@
         <v>29</v>
       </c>
       <c r="AK2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
         <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="n">
         <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ2" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -795,19 +795,19 @@
         <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
@@ -816,7 +816,7 @@
         <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
@@ -825,28 +825,28 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK2" t="n">
         <v>29</v>
       </c>
-      <c r="AK2" t="n">
-        <v>26</v>
-      </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO2" t="n">
         <v>23</v>
@@ -861,34 +861,34 @@
         <v>2.63</v>
       </c>
       <c r="AS2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AT2" t="n">
         <v>51</v>
       </c>
       <c r="AU2" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AW2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AX2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AY2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AZ2" t="n">
         <v>201</v>
       </c>
       <c r="BA2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
         <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
         <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -777,10 +777,10 @@
         <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -798,10 +798,10 @@
         <v>7</v>
       </c>
       <c r="X2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y2" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>19</v>
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -825,16 +825,16 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH2" t="n">
         <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="n">
         <v>29</v>
@@ -867,10 +867,10 @@
         <v>51</v>
       </c>
       <c r="AU2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW2" t="n">
         <v>29</v>
@@ -879,7 +879,7 @@
         <v>67</v>
       </c>
       <c r="AY2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AZ2" t="n">
         <v>201</v>
@@ -888,7 +888,7 @@
         <v>301</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
         <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
         <v>2.88</v>
@@ -768,7 +768,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -798,10 +798,10 @@
         <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>19</v>
@@ -816,7 +816,7 @@
         <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
@@ -831,10 +831,10 @@
         <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK2" t="n">
         <v>29</v>
@@ -867,10 +867,10 @@
         <v>51</v>
       </c>
       <c r="AU2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW2" t="n">
         <v>29</v>
@@ -879,10 +879,10 @@
         <v>67</v>
       </c>
       <c r="AY2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AZ2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA2" t="n">
         <v>301</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -768,7 +768,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
         <v>3.6</v>
@@ -759,10 +759,10 @@
         <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -771,37 +771,37 @@
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
         <v>9.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
         <v>19</v>
@@ -810,22 +810,22 @@
         <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>17</v>
@@ -849,7 +849,7 @@
         <v>12</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -858,13 +858,13 @@
         <v>67</v>
       </c>
       <c r="AR2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AS2" t="n">
         <v>8.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AU2" t="n">
         <v>5.5</v>
@@ -873,7 +873,7 @@
         <v>21</v>
       </c>
       <c r="AW2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AX2" t="n">
         <v>67</v>
@@ -885,7 +885,7 @@
         <v>251</v>
       </c>
       <c r="BA2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB2" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,6 +897,188 @@
         <v>51</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KWiFG6Bd</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Fenix</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N3" t="n">
+        <v>11</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -765,10 +765,10 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -771,16 +771,16 @@
         <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="H3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="J3" t="n">
         <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L3" t="n">
         <v>1.91</v>
@@ -965,16 +965,16 @@
         <v>1.95</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
         <v>9.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -935,22 +935,22 @@
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.38</v>
       </c>
       <c r="L3" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -971,10 +971,10 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
         <v>9.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -750,7 +750,7 @@
         <v>2.15</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
         <v>3.6</v>
@@ -765,34 +765,34 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
@@ -807,13 +807,13 @@
         <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -822,7 +822,7 @@
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
         <v>9</v>
@@ -837,7 +837,7 @@
         <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -846,7 +846,7 @@
         <v>4</v>
       </c>
       <c r="AN2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="n">
         <v>26</v>
@@ -858,10 +858,10 @@
         <v>67</v>
       </c>
       <c r="AR2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AS2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AT2" t="n">
         <v>67</v>
@@ -882,13 +882,13 @@
         <v>101</v>
       </c>
       <c r="AZ2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BA2" t="n">
         <v>351</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I3" t="n">
         <v>1.33</v>
       </c>
       <c r="J3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.38</v>
       </c>
       <c r="L3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -765,28 +765,28 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
@@ -822,7 +822,7 @@
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
         <v>9</v>
@@ -858,7 +858,7 @@
         <v>67</v>
       </c>
       <c r="AR2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AS2" t="n">
         <v>9</v>
@@ -888,7 +888,7 @@
         <v>351</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -777,10 +777,10 @@
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -783,7 +783,7 @@
         <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T2" t="n">
         <v>2.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,7 +783,7 @@
         <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
         <v>2.5</v>
@@ -1076,6 +1076,188 @@
         <v>51</v>
       </c>
       <c r="BD3" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>QXb6IStp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liverpool M.</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>301</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD4" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
         <v>3.5</v>
@@ -1126,7 +1126,7 @@
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,10 +771,10 @@
         <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
         <v>2.25</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="H3" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="J3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.38</v>
       </c>
       <c r="L3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -971,10 +971,10 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
         <v>9.5</v>
@@ -1258,6 +1258,370 @@
         <v>51</v>
       </c>
       <c r="BD4" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Qa7iAtsI</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>500</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>900</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MR008KBU</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>La Guaira</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Estudiantes Merida</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>250</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD6" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,112 +596,112 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-0_HT</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-0_HT</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-1_HT</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-0_HT</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-1_HT</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-2_HT</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-0_HT</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-1_HT</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-2_HT</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-2_HT</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CQv1vA33</t>
+          <t>AHKITXtF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,95 +728,95 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -825,82 +825,82 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK2" t="n">
         <v>41</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>34</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>41</v>
       </c>
-      <c r="AM2" t="n">
-        <v>4</v>
-      </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>41</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV2" t="n">
         <v>67</v>
       </c>
-      <c r="AR2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>21</v>
-      </c>
       <c r="AW2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY2" t="n">
         <v>34</v>
       </c>
-      <c r="AX2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AY2" t="n">
+      <c r="AZ2" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA2" t="n">
         <v>101</v>
       </c>
-      <c r="AZ2" t="n">
-        <v>301</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>351</v>
-      </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KWiFG6Bd</t>
+          <t>CQv1vA33</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,157 +920,157 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fenix</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>1.36</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>8.5</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.83</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y3" t="n">
         <v>9.5</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK3" t="n">
         <v>41</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>13</v>
       </c>
       <c r="AL3" t="n">
         <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>41</v>
       </c>
-      <c r="AO3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP3" t="n">
+      <c r="AR3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS3" t="n">
         <v>201</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>10</v>
-      </c>
       <c r="AT3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV3" t="n">
         <v>67</v>
       </c>
-      <c r="AU3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>7</v>
-      </c>
       <c r="AW3" t="n">
-        <v>21</v>
+        <v>5.5</v>
       </c>
       <c r="AX3" t="n">
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>QXb6IStp</t>
+          <t>KWiFG6Bd</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,157 +1102,157 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Fenix</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>8.5</v>
       </c>
       <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T4" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="U4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX4" t="n">
         <v>7</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8</v>
-      </c>
-      <c r="X4" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>51</v>
-      </c>
       <c r="AY4" t="n">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="AZ4" t="n">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="BA4" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Qa7iAtsI</t>
+          <t>QXb6IStp</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,167 +1274,167 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Monagas</t>
+          <t>Liverpool M.</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.5</v>
       </c>
-      <c r="I5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.2</v>
-      </c>
       <c r="K5" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.07</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>5.4</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>6.6</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU5" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX5" t="n">
         <v>15</v>
       </c>
-      <c r="AB5" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>200</v>
-      </c>
       <c r="AY5" t="n">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>900</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>350</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MR008KBU</t>
+          <t>Qa7iAtsI</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,162 +1466,344 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>La Guaira</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Estudiantes Merida</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.02</v>
+        <v>1.62</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="J6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P6" t="n">
         <v>2.62</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>2.07</v>
       </c>
       <c r="R6" t="n">
-        <v>1.93</v>
+        <v>1.6</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>3.04</v>
+        <v>2.42</v>
       </c>
       <c r="U6" t="n">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>5.4</v>
       </c>
       <c r="X6" t="n">
-        <v>10.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>7.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE6" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="AF6" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI6" t="n">
-        <v>11.25</v>
+        <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>4.05</v>
+        <v>75</v>
       </c>
       <c r="AN6" t="n">
-        <v>10.5</v>
+        <v>3.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>17.5</v>
+        <v>7.9</v>
       </c>
       <c r="AP6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AY6" t="n">
         <v>40</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>100</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BA6" t="n">
         <v>300</v>
       </c>
       <c r="BB6" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MR008KBU</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>La Guaira</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Estudiantes Merida</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS7" t="n">
         <v>200</v>
       </c>
-      <c r="BC6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD6" t="n">
+      <c r="AT7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD7" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -953,10 +953,10 @@
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
         <v>2.25</v>
@@ -1478,13 +1478,13 @@
         <v>1.62</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="K6" t="n">
         <v>2.07</v>
@@ -1493,10 +1493,10 @@
         <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>6.2</v>
+        <v>6.25</v>
       </c>
       <c r="O6" t="n">
         <v>1.37</v>
@@ -1511,10 +1511,10 @@
         <v>1.6</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T6" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="U6" t="n">
         <v>2.05</v>
@@ -1532,16 +1532,16 @@
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
         <v>6.9</v>
@@ -1556,10 +1556,10 @@
         <v>900</v>
       </c>
       <c r="AH6" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ6" t="n">
         <v>18</v>
@@ -1577,31 +1577,31 @@
         <v>3.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AP6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ6" t="n">
         <v>27</v>
       </c>
       <c r="AR6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS6" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>90</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AX6" t="n">
         <v>32</v>
@@ -1613,7 +1613,7 @@
         <v>200</v>
       </c>
       <c r="BA6" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BB6" t="n">
         <v>500</v>
@@ -1678,7 +1678,7 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1693,10 +1693,10 @@
         <v>1.98</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="T7" t="n">
-        <v>3.04</v>
+        <v>2.94</v>
       </c>
       <c r="U7" t="n">
         <v>1.55</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -953,10 +953,10 @@
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
         <v>2.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -768,7 +768,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -953,10 +953,10 @@
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
         <v>2.25</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -1308,7 +1308,7 @@
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1475,148 +1475,148 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="H6" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>5.4</v>
+        <v>4.65</v>
       </c>
       <c r="J6" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="K6" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="U6" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V6" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="W6" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AE6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AG6" t="n">
         <v>900</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AI6" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AJ6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP6" t="n">
         <v>18</v>
       </c>
-      <c r="AK6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AR6" t="n">
         <v>65</v>
       </c>
       <c r="AS6" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AX6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AY6" t="n">
         <v>32</v>
       </c>
-      <c r="AY6" t="n">
-        <v>40</v>
-      </c>
       <c r="AZ6" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA6" t="n">
         <v>200</v>
       </c>
-      <c r="BA6" t="n">
-        <v>250</v>
-      </c>
       <c r="BB6" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1678,7 +1678,7 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1693,10 +1693,10 @@
         <v>1.98</v>
       </c>
       <c r="S7" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="U7" t="n">
         <v>1.55</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -935,13 +935,13 @@
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
         <v>4.33</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
         <v>6.5</v>
@@ -995,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1034,7 +1034,7 @@
         <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -1064,13 +1064,13 @@
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
         <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Qa7iAtsI</t>
+          <t>8hY9xlYF</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,167 +1456,167 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Monagas</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>4.65</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="K6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
         <v>2.1</v>
       </c>
-      <c r="L6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="V6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6.5</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AH6" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
         <v>26</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
         <v>3.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
         <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="BA6" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>450</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1628,182 +1628,364 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Qa7iAtsI</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>MR008KBU</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>13/11/2024</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>La Guaira</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Estudiantes Merida</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>2.07</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>3.4</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>3.15</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>2.67</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K8" t="n">
         <v>2.15</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L8" t="n">
         <v>3.55</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M8" t="n">
         <v>1.01</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N8" t="n">
         <v>7.8</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O8" t="n">
         <v>1.22</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P8" t="n">
         <v>3.45</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q8" t="n">
         <v>1.65</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R8" t="n">
         <v>1.98</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S8" t="n">
         <v>1.36</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T8" t="n">
         <v>2.9</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U8" t="n">
         <v>1.55</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V8" t="n">
         <v>2.15</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W8" t="n">
         <v>8.75</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X8" t="n">
         <v>11</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y8" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z8" t="n">
         <v>20</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA8" t="n">
         <v>15.5</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB8" t="n">
         <v>22</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC8" t="n">
         <v>12</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD8" t="n">
         <v>6.8</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE8" t="n">
         <v>12</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF8" t="n">
         <v>45</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG8" t="n">
         <v>300</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH8" t="n">
         <v>12</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI8" t="n">
         <v>19</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ8" t="n">
         <v>11</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK8" t="n">
         <v>45</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL8" t="n">
         <v>25</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM8" t="n">
         <v>27</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN8" t="n">
         <v>4.1</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO8" t="n">
         <v>10.75</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP8" t="n">
         <v>17.5</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ8" t="n">
         <v>40</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR8" t="n">
         <v>65</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS8" t="n">
         <v>200</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT8" t="n">
         <v>2.9</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU8" t="n">
         <v>6.6</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV8" t="n">
         <v>50</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW8" t="n">
         <v>5.2</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX8" t="n">
         <v>16.5</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY8" t="n">
         <v>21</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ8" t="n">
         <v>75</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA8" t="n">
         <v>90</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB8" t="n">
         <v>250</v>
       </c>
-      <c r="BC7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD7" t="n">
+      <c r="BC8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD8" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -953,10 +953,10 @@
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
         <v>2.25</v>
@@ -983,7 +983,7 @@
         <v>9</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>19</v>
@@ -1657,46 +1657,46 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="J7" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.6</v>
+        <v>6.65</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
         <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T7" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="U7" t="n">
         <v>1.9</v>
@@ -1705,28 +1705,28 @@
         <v>1.72</v>
       </c>
       <c r="W7" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="Y7" t="n">
         <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB7" t="n">
         <v>30</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AE7" t="n">
         <v>17</v>
@@ -1735,37 +1735,37 @@
         <v>90</v>
       </c>
       <c r="AG7" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH7" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="AI7" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK7" t="n">
         <v>90</v>
       </c>
       <c r="AL7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM7" t="n">
         <v>55</v>
       </c>
-      <c r="AM7" t="n">
-        <v>60</v>
-      </c>
       <c r="AN7" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
         <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AR7" t="n">
         <v>60</v>
@@ -1774,19 +1774,19 @@
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
         <v>70</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AX7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY7" t="n">
         <v>32</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
@@ -831,10 +831,10 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
@@ -858,7 +858,7 @@
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
         <v>201</v>
@@ -873,7 +873,7 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CQv1vA33</t>
+          <t>KWiFG6Bd</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,157 +920,157 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Fenix</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>8.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>1.36</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>8.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>1.83</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT3" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.5</v>
-      </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="AX3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY3" t="n">
         <v>21</v>
       </c>
-      <c r="AY3" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KWiFG6Bd</t>
+          <t>QXb6IStp</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,157 +1102,157 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fenix</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Liverpool M.</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>8.5</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>1.36</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.38</v>
       </c>
-      <c r="L4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>10</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AK4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL4" t="n">
         <v>23</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>13</v>
       </c>
       <c r="AM4" t="n">
         <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS4" t="n">
         <v>201</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AT4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB4" t="n">
         <v>201</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>151</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>QXb6IStp</t>
+          <t>8hY9xlYF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,157 +1284,157 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
         <v>3</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="Q5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X5" t="n">
         <v>7</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
         <v>13</v>
       </c>
-      <c r="Y5" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>29</v>
-      </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP5" t="n">
         <v>23</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AQ5" t="n">
         <v>34</v>
       </c>
-      <c r="AN5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
-      </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
         <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8hY9xlYF</t>
+          <t>Qa7iAtsI</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,167 +1456,167 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="Z6" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA6" t="n">
         <v>13</v>
       </c>
-      <c r="AA6" t="n">
-        <v>17</v>
-      </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AG6" t="n">
-        <v>351</v>
+        <v>900</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.5</v>
+        <v>7.1</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="AX6" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AY6" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AZ6" t="n">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="BA6" t="n">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Qa7iAtsI</t>
+          <t>MR008KBU</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,344 +1648,162 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Monagas</t>
+          <t>Estudiantes Merida</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>2.07</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.9</v>
+        <v>3.15</v>
       </c>
       <c r="J7" t="n">
-        <v>2.22</v>
+        <v>2.67</v>
       </c>
       <c r="K7" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>6.65</v>
+        <v>7.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.98</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.65</v>
-      </c>
       <c r="S7" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>2.57</v>
+        <v>2.9</v>
       </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="V7" t="n">
-        <v>1.72</v>
+        <v>2.15</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>8.75</v>
       </c>
       <c r="X7" t="n">
-        <v>7.2</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="AA7" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.75</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
         <v>6.8</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AG7" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="AH7" t="n">
         <v>12</v>
       </c>
       <c r="AI7" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA7" t="n">
         <v>90</v>
       </c>
-      <c r="AL7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS7" t="n">
+      <c r="BB7" t="n">
         <v>250</v>
       </c>
-      <c r="AT7" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>175</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>450</v>
-      </c>
       <c r="BC7" t="n">
         <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MR008KBU</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>13/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>La Guaira</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Estudiantes Merida</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="W8" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="X8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>75</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>90</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD8" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="L6" t="n">
         <v>6.2</v>
@@ -1496,127 +1496,127 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X6" t="n">
         <v>6.7</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6</v>
-      </c>
-      <c r="X6" t="n">
-        <v>6.9</v>
-      </c>
       <c r="Y6" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AA6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH6" t="n">
         <v>13</v>
       </c>
-      <c r="AB6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AI6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ6" t="n">
         <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AL6" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM6" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN6" t="n">
         <v>3.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR6" t="n">
         <v>50</v>
       </c>
       <c r="AS6" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AV6" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AX6" t="n">
         <v>40</v>
       </c>
       <c r="AY6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AZ6" t="n">
         <v>300</v>
       </c>
       <c r="BA6" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BB6" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -935,7 +935,7 @@
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J3" t="n">
         <v>8.5</v>
@@ -947,10 +947,10 @@
         <v>1.83</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -971,10 +971,10 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
         <v>9.5</v>
@@ -1475,145 +1475,145 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="J6" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="K6" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="L6" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6.85</v>
+        <v>6.65</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U6" t="n">
         <v>2.05</v>
       </c>
-      <c r="R6" t="n">
+      <c r="V6" t="n">
         <v>1.62</v>
       </c>
-      <c r="S6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.65</v>
-      </c>
       <c r="W6" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="X6" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB6" t="n">
         <v>32</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AE6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF6" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="n">
         <v>800</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK6" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AL6" t="n">
         <v>90</v>
       </c>
       <c r="AM6" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AP6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS6" t="n">
         <v>250</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AV6" t="n">
         <v>80</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AX6" t="n">
         <v>40</v>
       </c>
       <c r="AY6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ6" t="n">
         <v>300</v>
       </c>
       <c r="BA6" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BB6" t="n">
         <v>450</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
@@ -831,10 +831,10 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
@@ -858,7 +858,7 @@
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
         <v>201</v>
@@ -873,7 +873,7 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
@@ -888,7 +888,7 @@
         <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -1478,76 +1478,76 @@
         <v>1.52</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="K6" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
         <v>6.5</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.65</v>
-      </c>
       <c r="O6" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T6" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="U6" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W6" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="X6" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y6" t="n">
         <v>8.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF6" t="n">
         <v>110</v>
@@ -1556,16 +1556,16 @@
         <v>800</v>
       </c>
       <c r="AH6" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ6" t="n">
         <v>22</v>
       </c>
       <c r="AK6" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AL6" t="n">
         <v>90</v>
@@ -1577,7 +1577,7 @@
         <v>3.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AP6" t="n">
         <v>18</v>
@@ -1586,25 +1586,25 @@
         <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS6" t="n">
         <v>250</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AV6" t="n">
         <v>80</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AY6" t="n">
         <v>40</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -1475,145 +1475,145 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="H6" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L6" t="n">
         <v>7.2</v>
       </c>
-      <c r="J6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6.6</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>6.65</v>
       </c>
       <c r="O6" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="U6" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="X6" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="Y6" t="n">
         <v>8.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB6" t="n">
         <v>35</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AE6" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AF6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="n">
         <v>800</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AL6" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AM6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="AP6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS6" t="n">
         <v>250</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AV6" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AY6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AZ6" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BA6" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BB6" t="n">
         <v>450</v>
@@ -1693,10 +1693,10 @@
         <v>1.98</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T7" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="U7" t="n">
         <v>1.55</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I3" t="n">
         <v>1.33</v>
       </c>
       <c r="J3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.38</v>
       </c>
       <c r="L3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -953,16 +953,16 @@
         <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
@@ -1478,10 +1478,10 @@
         <v>1.47</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I6" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="J6" t="n">
         <v>1.95</v>
@@ -1490,19 +1490,19 @@
         <v>2.12</v>
       </c>
       <c r="L6" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>6.65</v>
+        <v>6.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
@@ -1514,7 +1514,7 @@
         <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
         <v>2.1</v>
@@ -1526,7 +1526,7 @@
         <v>5.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
         <v>8.25</v>
@@ -1541,13 +1541,13 @@
         <v>35</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AE6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
         <v>120</v>
@@ -1568,7 +1568,7 @@
         <v>250</v>
       </c>
       <c r="AL6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM6" t="n">
         <v>100</v>
@@ -1592,16 +1592,16 @@
         <v>250</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW6" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AX6" t="n">
         <v>50</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -959,10 +959,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1317,16 +1317,16 @@
         <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1335,10 +1335,10 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
@@ -1350,7 +1350,7 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
         <v>17</v>
@@ -1386,7 +1386,7 @@
         <v>51</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
         <v>51</v>
@@ -1395,7 +1395,7 @@
         <v>3.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
@@ -1475,37 +1475,37 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="H6" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="K6" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L6" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6.6</v>
+        <v>6.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R6" t="n">
         <v>1.65</v>
@@ -1517,37 +1517,37 @@
         <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="W6" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="Y6" t="n">
         <v>8.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AA6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
         <v>35</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF6" t="n">
         <v>120</v>
@@ -1556,43 +1556,43 @@
         <v>800</v>
       </c>
       <c r="AH6" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AK6" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL6" t="n">
         <v>120</v>
       </c>
       <c r="AM6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AP6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS6" t="n">
         <v>250</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="AU6" t="n">
         <v>8</v>
@@ -1601,16 +1601,16 @@
         <v>80</v>
       </c>
       <c r="AW6" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AY6" t="n">
         <v>50</v>
       </c>
       <c r="AZ6" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BA6" t="n">
         <v>400</v>
@@ -1678,7 +1678,7 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1323,10 +1323,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1335,10 +1335,10 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
@@ -1350,7 +1350,7 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
         <v>17</v>
@@ -1386,7 +1386,7 @@
         <v>51</v>
       </c>
       <c r="AL5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
         <v>51</v>
@@ -1395,7 +1395,7 @@
         <v>3.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
@@ -1496,7 +1496,7 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6.75</v>
+        <v>6.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -1156,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W4" t="n">
         <v>8</v>
@@ -1314,7 +1314,7 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1323,10 +1323,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1338,7 +1338,7 @@
         <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -1141,10 +1141,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>1.53</v>
@@ -1156,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W4" t="n">
         <v>8</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1323,10 +1323,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1335,10 +1335,10 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
@@ -1350,7 +1350,7 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
         <v>17</v>
@@ -1365,7 +1365,7 @@
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>67</v>
@@ -1383,10 +1383,10 @@
         <v>19</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
         <v>51</v>
@@ -1395,7 +1395,7 @@
         <v>3.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
@@ -1416,13 +1416,13 @@
         <v>9.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -959,10 +959,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -1141,10 +1141,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -1317,10 +1317,10 @@
         <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
         <v>2.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="H3" t="n">
         <v>5.25</v>
@@ -938,10 +938,10 @@
         <v>1.33</v>
       </c>
       <c r="J3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.8</v>
@@ -950,7 +950,7 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -959,10 +959,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -971,10 +971,10 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>9.5</v>
@@ -1496,7 +1496,7 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6.8</v>
+        <v>6.75</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -1317,10 +1317,10 @@
         <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
         <v>2.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
@@ -1353,7 +1353,7 @@
         <v>12</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
@@ -1362,13 +1362,13 @@
         <v>7.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
         <v>351</v>
@@ -1392,7 +1392,7 @@
         <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO5" t="n">
         <v>9</v>
@@ -1401,7 +1401,7 @@
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -768,7 +768,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -798,7 +798,7 @@
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -825,7 +825,7 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="n">
         <v>10</v>
@@ -840,7 +840,7 @@
         <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
@@ -849,7 +849,7 @@
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -885,7 +885,7 @@
         <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
         <v>301</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
         <v>5.25</v>
@@ -938,7 +938,7 @@
         <v>1.33</v>
       </c>
       <c r="J3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="K3" t="n">
         <v>2.4</v>
@@ -950,7 +950,7 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -959,10 +959,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -971,10 +971,10 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
         <v>9.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -768,7 +768,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -959,10 +959,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -959,10 +959,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -1496,7 +1496,7 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6.75</v>
+        <v>6.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -959,10 +959,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
         <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="K6" t="n">
         <v>2.18</v>
       </c>
       <c r="L6" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1502,13 +1502,13 @@
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1523,7 +1523,7 @@
         <v>1.55</v>
       </c>
       <c r="W6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="X6" t="n">
         <v>5.7</v>
@@ -1544,19 +1544,19 @@
         <v>8.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AE6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG6" t="n">
         <v>800</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI6" t="n">
         <v>65</v>
@@ -1568,22 +1568,22 @@
         <v>300</v>
       </c>
       <c r="AL6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM6" t="n">
         <v>120</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>110</v>
       </c>
       <c r="AN6" t="n">
         <v>3.05</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AP6" t="n">
         <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AR6" t="n">
         <v>50</v>
@@ -1595,25 +1595,25 @@
         <v>2.55</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AV6" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW6" t="n">
         <v>9.5</v>
       </c>
       <c r="AX6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AY6" t="n">
         <v>55</v>
       </c>
-      <c r="AY6" t="n">
-        <v>50</v>
-      </c>
       <c r="AZ6" t="n">
+        <v>500</v>
+      </c>
+      <c r="BA6" t="n">
         <v>450</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>400</v>
       </c>
       <c r="BB6" t="n">
         <v>450</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -959,10 +959,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -1496,7 +1496,7 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6.8</v>
+        <v>6.65</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>
@@ -1678,7 +1678,7 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -1478,25 +1478,25 @@
         <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="K6" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L6" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6.65</v>
+        <v>6.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>
@@ -1529,10 +1529,10 @@
         <v>5.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA6" t="n">
         <v>13</v>
@@ -1541,16 +1541,16 @@
         <v>35</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
         <v>7.8</v>
       </c>
       <c r="AE6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="n">
         <v>800</v>
@@ -1559,58 +1559,58 @@
         <v>18.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK6" t="n">
         <v>300</v>
       </c>
       <c r="AL6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
         <v>3.05</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AR6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS6" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
         <v>90</v>
       </c>
       <c r="AW6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AX6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AY6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AZ6" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BA6" t="n">
         <v>450</v>
@@ -1678,7 +1678,7 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KWiFG6Bd</t>
+          <t>QXb6IStp</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,157 +920,157 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fenix</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Liverpool M.</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>2.63</v>
       </c>
       <c r="H3" t="n">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>1.33</v>
+        <v>2.9</v>
       </c>
       <c r="J3" t="n">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2.4</v>
       </c>
-      <c r="L3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="R3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W3" t="n">
+        <v>8</v>
+      </c>
+      <c r="X3" t="n">
         <v>13</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>41</v>
-      </c>
       <c r="Y3" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
         <v>51</v>
       </c>
-      <c r="AB3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC3" t="n">
+      <c r="AG3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>10</v>
       </c>
-      <c r="AD3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AK3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL3" t="n">
         <v>23</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>13</v>
       </c>
       <c r="AM3" t="n">
         <v>34</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="n">
         <v>201</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AT3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="n">
         <v>201</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>151</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>QXb6IStp</t>
+          <t>8hY9xlYF</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,157 +1102,157 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X4" t="n">
         <v>7</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8</v>
-      </c>
-      <c r="X4" t="n">
-        <v>13</v>
-      </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL4" t="n">
         <v>51</v>
       </c>
-      <c r="AG4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP4" t="n">
         <v>23</v>
       </c>
-      <c r="AM4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP4" t="n">
+      <c r="AQ4" t="n">
         <v>29</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AR4" t="n">
         <v>51</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>81</v>
       </c>
       <c r="AS4" t="n">
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8hY9xlYF</t>
+          <t>Qa7iAtsI</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,167 +1274,167 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.65</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="S5" t="n">
         <v>1.4</v>
       </c>
-      <c r="P5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>8.75</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="AG5" t="n">
-        <v>351</v>
+        <v>800</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>19</v>
       </c>
-      <c r="AK5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>29</v>
-      </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="AT5" t="n">
         <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX5" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AZ5" t="n">
-        <v>126</v>
+        <v>450</v>
       </c>
       <c r="BA5" t="n">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="BB5" t="n">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Qa7iAtsI</t>
+          <t>MR008KBU</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,344 +1466,162 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Monagas</t>
+          <t>Estudiantes Merida</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>2.07</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>8.75</v>
+        <v>3.15</v>
       </c>
       <c r="J6" t="n">
-        <v>1.93</v>
+        <v>2.67</v>
       </c>
       <c r="K6" t="n">
         <v>2.15</v>
       </c>
       <c r="L6" t="n">
-        <v>7.5</v>
+        <v>3.55</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>2.85</v>
+        <v>3.45</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.94</v>
       </c>
       <c r="U6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V6" t="n">
         <v>2.15</v>
       </c>
-      <c r="V6" t="n">
-        <v>1.55</v>
-      </c>
       <c r="W6" t="n">
-        <v>5.3</v>
+        <v>8.75</v>
       </c>
       <c r="X6" t="n">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.75</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AE6" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="AG6" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="AH6" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM6" t="n">
         <v>27</v>
       </c>
-      <c r="AK6" t="n">
-        <v>300</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>110</v>
-      </c>
       <c r="AN6" t="n">
-        <v>3.05</v>
+        <v>4.1</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.5</v>
+        <v>10.75</v>
       </c>
       <c r="AP6" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AR6" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AS6" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.47</v>
+        <v>2.9</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA6" t="n">
         <v>90</v>
       </c>
-      <c r="AW6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>450</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>450</v>
-      </c>
       <c r="BB6" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MR008KBU</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>13/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>La Guaira</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Estudiantes Merida</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>75</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>90</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD7" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J4" t="n">
         <v>2.3</v>
@@ -1126,7 +1126,7 @@
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1162,7 +1162,7 @@
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
@@ -1195,10 +1195,10 @@
         <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
         <v>67</v>
@@ -1213,7 +1213,7 @@
         <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1246,10 +1246,10 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
         <v>351</v>
@@ -1305,34 +1305,34 @@
         <v>1.91</v>
       </c>
       <c r="K5" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L5" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>6.75</v>
+        <v>6.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T5" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="U5" t="n">
         <v>2.15</v>
@@ -1341,10 +1341,10 @@
         <v>1.55</v>
       </c>
       <c r="W5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="X5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
@@ -1356,13 +1356,13 @@
         <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AE5" t="n">
         <v>23</v>
@@ -1377,10 +1377,10 @@
         <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK5" t="n">
         <v>300</v>
@@ -1392,31 +1392,31 @@
         <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AR5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS5" t="n">
         <v>300</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV5" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW5" t="n">
         <v>9</v>
@@ -1425,13 +1425,13 @@
         <v>55</v>
       </c>
       <c r="AY5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AZ5" t="n">
         <v>450</v>
       </c>
       <c r="BA5" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BB5" t="n">
         <v>450</v>
@@ -1496,7 +1496,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -1114,7 +1114,7 @@
         <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
         <v>6.25</v>
@@ -1123,16 +1123,16 @@
         <v>2.3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1198,7 +1198,7 @@
         <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>67</v>
@@ -1246,10 +1246,10 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA4" t="n">
         <v>151</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>201</v>
       </c>
       <c r="BB4" t="n">
         <v>351</v>
@@ -1293,40 +1293,40 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="I5" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="K5" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L5" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>6.8</v>
+        <v>6.65</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P5" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S5" t="n">
         <v>1.42</v>
@@ -1335,103 +1335,103 @@
         <v>2.47</v>
       </c>
       <c r="U5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="X5" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB5" t="n">
         <v>35</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG5" t="n">
         <v>800</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AK5" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AL5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM5" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN5" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AP5" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ5" t="n">
         <v>19.5</v>
       </c>
       <c r="AR5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AS5" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.45</v>
+        <v>2.57</v>
       </c>
       <c r="AU5" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW5" t="n">
         <v>8.75</v>
       </c>
-      <c r="AV5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>9</v>
-      </c>
       <c r="AX5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AY5" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AZ5" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BA5" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="BB5" t="n">
         <v>450</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -1496,7 +1496,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
@@ -1511,10 +1511,10 @@
         <v>1.98</v>
       </c>
       <c r="S6" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="T6" t="n">
-        <v>2.94</v>
+        <v>3.04</v>
       </c>
       <c r="U6" t="n">
         <v>1.55</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -1111,19 +1111,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J4" t="n">
         <v>2.3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
@@ -1132,7 +1132,7 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1162,7 +1162,7 @@
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
@@ -1186,7 +1186,7 @@
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
         <v>351</v>
@@ -1195,7 +1195,7 @@
         <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>19</v>
@@ -1210,10 +1210,10 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1234,7 +1234,7 @@
         <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
         <v>7</v>
@@ -1293,145 +1293,145 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="K5" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L5" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>6.65</v>
+        <v>6.75</v>
       </c>
       <c r="O5" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="W5" t="n">
         <v>5.2</v>
       </c>
       <c r="X5" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="Y5" t="n">
         <v>8.25</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AA5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
         <v>35</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG5" t="n">
         <v>800</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AK5" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM5" t="n">
         <v>110</v>
       </c>
-      <c r="AM5" t="n">
-        <v>100</v>
-      </c>
       <c r="AN5" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AP5" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
         <v>19.5</v>
       </c>
       <c r="AR5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AY5" t="n">
         <v>50</v>
       </c>
-      <c r="AS5" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>45</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BA5" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BB5" t="n">
         <v>450</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.07</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.67</v>
+        <v>2.3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="L6" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1502,7 +1502,7 @@
         <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
         <v>1.65</v>
@@ -1517,76 +1517,76 @@
         <v>3.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="V6" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="W6" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
         <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AG6" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AL6" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AM6" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="AO6" t="n">
-        <v>10.75</v>
+        <v>8.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AR6" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AS6" t="n">
         <v>200</v>
@@ -1595,28 +1595,28 @@
         <v>2.9</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AV6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="AX6" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AZ6" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="BA6" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="BB6" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -959,10 +959,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>
@@ -1314,7 +1314,7 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>6.75</v>
+        <v>6.85</v>
       </c>
       <c r="O5" t="n">
         <v>1.32</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -759,7 +759,7 @@
         <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
         <v>4.75</v>
@@ -798,7 +798,7 @@
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -825,7 +825,7 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
         <v>10</v>
@@ -840,7 +840,7 @@
         <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
@@ -849,7 +849,7 @@
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -885,10 +885,10 @@
         <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J4" t="n">
         <v>2.3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1162,7 +1162,7 @@
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
@@ -1186,7 +1186,7 @@
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
         <v>351</v>
@@ -1195,7 +1195,7 @@
         <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
         <v>19</v>
@@ -1210,10 +1210,10 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1234,7 +1234,7 @@
         <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
         <v>7</v>
@@ -1293,79 +1293,79 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="J5" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="K5" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L5" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>6.85</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="W5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="X5" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
         <v>8.25</v>
       </c>
-      <c r="Z5" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD5" t="n">
         <v>8.25</v>
       </c>
-      <c r="AD5" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF5" t="n">
         <v>150</v>
@@ -1374,34 +1374,34 @@
         <v>800</v>
       </c>
       <c r="AH5" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AK5" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL5" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AM5" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AP5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AR5" t="n">
         <v>55</v>
@@ -1413,25 +1413,25 @@
         <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW5" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AY5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AZ5" t="n">
         <v>500</v>
       </c>
       <c r="BA5" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BB5" t="n">
         <v>450</v>
@@ -1493,10 +1493,10 @@
         <v>4.3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>8.1</v>
+        <v>14.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
@@ -1511,10 +1511,10 @@
         <v>1.98</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="T6" t="n">
-        <v>3.04</v>
+        <v>3.06</v>
       </c>
       <c r="U6" t="n">
         <v>1.65</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
@@ -831,10 +831,10 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
@@ -858,7 +858,7 @@
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
         <v>201</v>
@@ -873,7 +873,7 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>QXb6IStp</t>
+          <t>8hY9xlYF</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,157 +920,157 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>1.62</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.5</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL3" t="n">
         <v>51</v>
       </c>
-      <c r="AG3" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP3" t="n">
         <v>23</v>
       </c>
-      <c r="AM3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP3" t="n">
+      <c r="AQ3" t="n">
         <v>29</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AR3" t="n">
         <v>51</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>81</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8hY9xlYF</t>
+          <t>Qa7iAtsI</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,167 +1092,167 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.34</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>6.25</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.4</v>
       </c>
-      <c r="P4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X4" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA4" t="n">
         <v>12</v>
       </c>
-      <c r="AA4" t="n">
-        <v>15</v>
-      </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="AG4" t="n">
-        <v>351</v>
+        <v>800</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AK4" t="n">
-        <v>67</v>
+        <v>350</v>
       </c>
       <c r="AL4" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="AM4" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.5</v>
+        <v>5.9</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AR4" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV4" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AW4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX4" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AZ4" t="n">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="BA4" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Qa7iAtsI</t>
+          <t>MR008KBU</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,344 +1284,162 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Monagas</t>
+          <t>Estudiantes Merida</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N5" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.36</v>
       </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="T5" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO5" t="n">
         <v>8.5</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>350</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>175</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>6.1</v>
-      </c>
       <c r="AP5" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>17.5</v>
+        <v>28</v>
       </c>
       <c r="AR5" t="n">
         <v>55</v>
       </c>
       <c r="AS5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>110</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB5" t="n">
         <v>300</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>500</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>500</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>450</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MR008KBU</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>13/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>La Guaira</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Estudiantes Merida</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N6" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W6" t="n">
-        <v>8</v>
-      </c>
-      <c r="X6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>110</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD6" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
@@ -765,22 +765,22 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -798,7 +798,7 @@
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -846,7 +846,7 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>11</v>
@@ -938,13 +938,13 @@
         <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -953,16 +953,16 @@
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -986,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
@@ -1010,13 +1010,13 @@
         <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>29</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
         <v>67</v>
@@ -1064,10 +1064,10 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1076,370 +1076,6 @@
         <v>51</v>
       </c>
       <c r="BD3" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Qa7iAtsI</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>13/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Carabobo</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Monagas</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="X4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>350</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>500</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>500</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MR008KBU</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>13/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>La Guaira</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Estudiantes Merida</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N5" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8</v>
-      </c>
-      <c r="X5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>110</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD5" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -750,7 +750,7 @@
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
@@ -759,7 +759,7 @@
         <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>4.5</v>
@@ -768,7 +768,7 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -777,28 +777,28 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -807,34 +807,34 @@
         <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
         <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
@@ -864,10 +864,10 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
@@ -885,10 +885,10 @@
         <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -944,13 +944,13 @@
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -995,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>7</v>
@@ -1004,7 +1004,7 @@
         <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
         <v>351</v>
@@ -1052,7 +1052,7 @@
         <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
@@ -1064,10 +1064,10 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA3" t="n">
         <v>151</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>201</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AHKITXtF</t>
+          <t>8hY9xlYF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,59 +728,59 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -789,76 +789,76 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
         <v>201</v>
@@ -867,215 +867,33 @@
         <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>8hY9xlYF</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>13/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Progreso</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD3" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
@@ -765,22 +765,22 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
@@ -813,7 +813,7 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
@@ -870,7 +870,7 @@
         <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8hY9xlYF</t>
+          <t>AHKITXtF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,59 +728,59 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -789,25 +789,25 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
@@ -816,49 +816,49 @@
         <v>7.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
         <v>201</v>
@@ -867,33 +867,1125 @@
         <v>2.5</v>
       </c>
       <c r="AU2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CQv1vA33</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Miramar</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH3" t="n">
         <v>9.5</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AI3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KWiFG6Bd</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Fenix</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z4" t="n">
         <v>81</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AA4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX4" t="n">
         <v>7</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AY4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>QXb6IStp</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liverpool M.</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB5" t="n">
         <v>34</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>8hY9xlYF</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Defensor Sp.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Progreso</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY6" t="n">
         <v>41</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ6" t="n">
         <v>126</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA6" t="n">
         <v>151</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB6" t="n">
         <v>351</v>
       </c>
-      <c r="BC2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD2" t="n">
+      <c r="BC6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Qa7iAtsI</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>350</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>500</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>500</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MR008KBU</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>La Guaira</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Estudiantes Merida</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N8" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>110</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD8" t="n">
         <v>51</v>
       </c>
     </row>
